--- a/base de datos.xlsx
+++ b/base de datos.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,50 +569,55 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Fecha TT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Tiempo TT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha OT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo OT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Número Sucursal</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sucursal</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Título Falla</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ticket TT</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>#Ticket</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nodo o Puerto</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha OT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Alarm</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Datos SGA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Descripción</t>
         </is>
@@ -630,68 +635,73 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23303</v>
+        <v>10381</v>
       </c>
       <c r="D2" t="n">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19.428598°,-100.336026°</t>
+          <t xml:space="preserve"> 18.609758°,-99.260308°</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ZTO_C100G_03_CTC,</t>
+          <t>JOJU_CBR8_02_CTC</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Diferencia: 0 dias, 0 horas, 17 minutos, 42 segundos</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>116</v>
+          <t>6/21/2025 12:47:49 AM</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 0 horas, 30 minutos, 26 segundos</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Zitacuaro</t>
+          <t>2025-06-21 01:06:20</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEG,Centro,Zitacuaro, Planta Externa, ,Distribucion, H01,0104, 0104, SALIDA TOTAL CONCURRENTE, 10.0.8.67 - H01,0104,116 - 11/0.3/0 - CM TOTAL(183) - CM OFFLINE: (183) </t>
+          <t>Diferencia: 0 dias, 0 horas, 18 minutos, 31 segundos</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>10068423</v>
-      </c>
-      <c r="O2" t="n">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Jojutla</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-06-19 13:04:21</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>6/19/2025 12:44:48 PM</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>sin datos  | OTTime: 2025-06-19 13:04:21</t>
-        </is>
+          <t xml:space="preserve">MEG,Sureste,Jojutla, Planta Externa, ,Distribucion, CTC,0018, 0018, SALIDA PARCIAL CONCURRENTE, 10.0.32.2 - CTC,0018,90 - 1/0/4.1 - CM TOTAL(212) - CM OFFLINE: (45) </t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>10076653</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>ZTO_C100G_03_CTC, Revisar Puerto 10.0.8.67, H01,0104,116,1,1,3,250CP,24DS,Esq_5,RT01,05,11 - Logical Upstream Channel 11/0.3/0, TOTAL CM: (48) CM OFFLINE(48), DM Alarm: (48506390)1062.d0ad.618b,1093.97d9.2fe6,3c04.61f9.fda7,d46a.6af4.1596,dc36.0c99.ba50,ec5c.68f1.abc9,0c96.e6f0.05f4,10a7.9326.7888,7003.7e97.3b8e,748a.0def.5168,b0da.f936.fe6e,fc51.a461.16db,1056.112a.ba3a,1494.483b.0a6c,1494.484d.f3f4,2c95.6965.3ea6,485f.99f4.1c9a,840b.7c58.98a8,840b.7cf9.55c8,901a.ca08.e672,a811.fc1a.67b6,b85e.71b4.55a3,bc2e.48c6.4010,d405.9858.d952,d89c.67f6.ffef,ec5c.68f2.0cd7,1494.4840.d27c,1494.4847.6268,1494.487f.3c74,18b8.1f90.bcbf,4023.43ea.0cab,48bd.ce03.d838,5095.519e.1500,5413.79f4.ff37,54a6.5c64.ee04,7003.7e8a.437e,749b.e869.5408,a456.cc33.970f,ac4c.a573.28d4,b0da.f95e.f0d0,b85e.71b4.9893,0c96.e6f5.4e0c,1494.4841.daf0,18b8.1f82.9d4c,283a.4d9e.dc30,5c76.958c.0b6c,5ce3.0e6a.1463,946a.7779.73de,ac4c.a573.fedc,b85e.71a3.debc,b85e.71b4.2f5b,f88b.37aa.1204,f8a0.9736.e5ed,3c04.6183.230c,4023.43ec.ece3,54a6.5c62.2fb0,54a6.5c64.93da,5c76.958c.b0b4,603d.26cd.ec24,7003.7e85.8d9e,7003.7e92.f14e,80d0.4a0b.9acc,80d0.4aa6.42ae,840b.7c58.cfb0,840b.7cfe.71f8,909d.7dc6.2384,946a.7779.0bbe,a811.fc1c.dbea,b85e.71b4.5a9b,b85e.71b4.add3,c0a0.0dbe.90b8,c0a0.0dbe.cd17,c0b5.d7f8.f18c,c852.6182.341f,d405.98cb.1d62,dc36.0c91.caa8,dc36.0cab.1840,dceb.6973.de78,0cb9.370f.1bfa,10a7.9327.37c0,10a7.9328.ab78,1494.483b.dec0,1494.4840.a02c,1494.484e.4488,1c9e.cc98.e3ec,1c9e.cc99.1494,2c95.69ea.a27c,4023.43e9.dc0f,4023.43ec.f1ff,4075.c32a.4b64,5095.519c.f6f7,5095.519e.5998,7003.7e84.f75e,7003.7e86.f166,7003.7e93.0d8e,7003.7e97.25e6,840b.7cfe.68b8,946a.7778.2b6e,989d.5d2e.8628,9cc8.fc64.3eeb,a456.cc32.d157,ac4c.a573.ef4c,ac4c.a574.0004,b85e.71b4.b93b,c0a0.0dbc.68c4,c0b5.d7fb.e1f0,cc0d.ecc7.867c,d46a.6af1.d119,d89c.67f4.4b58,dc36.0c91.9118,ec5c.68f7.f9f3,ec5c.68f8.d133,eca8.1f69.a5b4,f44b.2ae4.084e,0c96.e6fb.8351,0c96.e6fc.ac37,105b.ade2.0e25,10c2.5a55.5393,1494.4843.4cb4,1494.484d.ed80,1494.4885.3be8,283a.4d9d.23ca,283a.4d9d.85c3,3cb7.4b5d.f274,485f.99ef.5ad6,485f.99ef.6a2a,485f.99f1.c89c,485f.99f3.765c,485f.99f7.91c3,54a6.5c63.c7c2,5c76.958c.174c,5c76.958c.e064,748a.0deb.23c7,748a.0def.4948,749b.e86c.6660,7871.9c4f.18b2,80d0.4a10.7cc4,840b.7cfa.29a0,90c7.929e.5462,986b.3d4b.c452,9cc8.fc62.3a56,ac4c.a572.f40c,ac4c.a575.f454,ac4c.a576.000c,b0da.f909.d612,b0da.f95b.d51c,b0da.f9bc.98f6,b85e.7194.a214,b85e.71b1.4c7b,b85e.71b4.3e33,b85e.71b4.c8c3,c0a0.0d07.24a3,c0a0.0dbb.b046,c0a0.0dbe.6cd2,c0b5.d7f8.36c6,c852.6182.67e6,c852.6182.774f,d405.9832.d672,dc36.0cab.77b0,e86f.38f9.2c14,ec5c.68ed.ea67,ec5c.68ee.0bfd,ec5c.68f1.5331,ec5c.68f2.9c71,ec5c.68f8.da21,f44b.2aef.33f6,105b.adf3.b0d7,2856.5ace.0e7c,2c95.695f.40c8,4023.43eb.2621,749b.e86f.1310,ac4c.a574.feb4,c0b5.d7f9.0434,d89c.67df.3434,e86f.38f8.de50,e8ed.0542.4482,ec5c.68ef.6c5f,</t>
+          <t>rev falta de baterias  | OTTime: 2025-06-21 01:06:20</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>JOJU_CBR8_02_CTC, Revisar Puerto 10.0.32.2, CTC,0018,090,1,1,2,250CP,32DS,Esq_5,RT01,02,10 - cable1/0/4.1, TOTAL CM: (212) CM OFFLINE(45), DM Alarm: (49350133)1062.d07f.90d8,1062.d085.28b3,1062.d086.8a78,1062.d086.8acd,1062.d086.8dc0,1062.d086.97ed,1062.d094.45c2,1062.d0a5.f033,1062.d0a5.fbe6,1062.d0a6.190f,1062.d0a7.1e68,1411.5d03.60e0,383f.b30c.5e99,383f.b30d.5bb4,383f.b30d.fbd2,383f.b30e.0f0a,3cb7.4b95.6b6a,3cb7.4b95.a85f,5896.30fe.eb72,603d.2629.1b35,6c55.e8b0.fa41,6c55.e8cf.ca2a,6c55.e8cf.d51a,6c55.e8d3.186f,6c55.e8d3.573f,6c55.e8d5.e2d9,6c55.e8d6.27e9,889e.68c2.c135,889e.68c5.571f,889e.68ca.cc4f,9852.4a5d.53f3,989d.5d67.6ec3,989d.5d68.07ed,989d.5d69.5148,b42a.0ea8.7534,f44c.70a4.94f5,f44c.70aa.b2fd,</t>
         </is>
       </c>
     </row>
@@ -707,68 +717,73 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18901</v>
+        <v>1602</v>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19.792089°,-99.052500°</t>
+          <t xml:space="preserve"> 18.768243°,-96.175361°</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TLN_CBR8_09_HUB03,</t>
+          <t>VER_CBR8_22_HUB02,</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Diferencia: 0 dias, 0 horas, 14 minutos, 29 segundos</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>226</v>
+          <t>6/21/2025 1:00:09 AM</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 0 horas, 34 minutos, 51 segundos</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Zumpango</t>
+          <t>2025-06-21 01:33:52</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEG,Centro,Zumpango, Planta Externa, ,Distribucion, H03,0127, 0127, SALIDA PARCIAL CONCURRENTE, 10.0.240.9 - H03,0127,226 - 3/0/0.1 - CM TOTAL(227) - CM OFFLINE: (132) </t>
+          <t>Diferencia: 0 dias, 0 horas, 33 minutos, 43 segundos</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>10068696</v>
-      </c>
-      <c r="O3" t="n">
-        <v>127</v>
+        <v>184</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Piedras Negras</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-06-19 13:37:44</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>6/19/2025 1:22:19 PM</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>xponder fuera de linea en campo  | OTTime: 2025-06-19 13:37:44</t>
-        </is>
+          <t xml:space="preserve">MEG,Golfo,Piedras Negras, Planta Externa, ,Distribucion, H02,0537, 0537, SALIDA PARCIAL CONCURRENTE, 10.0.104.22 - H02,0537,184 - 9/0/6.1 - CM TOTAL(288) - CM OFFLINE: (149) </t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>10076670</v>
+      </c>
+      <c r="R3" t="n">
+        <v>537</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>TLN_CBR8_09_HUB03, Revisar Puerto 10.0.240.9, H03,0127,226,1,1,3,250CP,32DS,4x3.2,RT07,02,11 - cable3/0/0.1, TOTAL CM: (227) CM OFFLINE(132), DM Alarm: (41758619)1062.d094.461c,1062.d095.4576,1062.d0a6.fad7,1062.d0a8.fab7,38fa.ca38.8227,38fa.ca39.15a2,603d.2626.f95e,603d.2627.6fba,6c55.e8b2.75f6,6c55.e8ce.b4a0,6c55.e8d3.f9ab,6c55.e8d5.7efc,6c55.e8d5.a12f,80d0.4a15.23dc,889e.68c1.e111,889e.68c5.4716,889e.68ca.574c,889e.68ca.98ba,889e.68cb.5f93,9852.4a5d.679e,989d.5d67.1081,b42a.0ea8.f351,b42a.0eaa.4215,b42a.0eaa.a89a,f44c.70a3.b798,f44c.70a4.66b7,f44c.70a4.952e,f44c.70a6.d444,f44c.70a7.2409,f44c.70aa.c228,f44c.70aa.f590,f44c.70ab.0c22,0c96.e6ee.a4d6,105b.adf7.33db,1062.d0ac.6fa5,1093.97d7.63ff,1093.97d7.e12c,1093.97da.f98e,1494.4843.1c34,1494.4843.8e98,1494.4844.14e0,1c9e.cc97.a50c,20f1.9e61.45c6,283a.4d9a.db82,283a.4d9e.ceed,2856.5ad6.0241,2c95.69e7.ae0a,3c04.6182.91cb,3c04.61c6.f94f,4023.43eb.495b,4023.43ec.8dfd,485f.99ef.6e32,485f.99f6.56d0,48bd.ce43.a0dc,48e2.44e8.036c,7003.7e8c.1356,7003.7e93.b946,7003.7e94.511e,7440.bbfc.38b4,748a.0deb.8a74,748a.0dee.f19b,748a.0dee.f60a,749b.e864.7150,749b.e868.eb50,749b.e86a.2888,7871.9c1e.3d92,7871.9c21.09d2,7871.9c39.4b82,80d0.4a0b.695c,80d0.4a10.515c,80d0.4a12.9ccc,80d0.4a15.3e0c,840b.7c55.ad08,9032.4bc7.06a0,90cd.b69e.456e,9453.30f1.f5f5,946a.7778.480e,9cc8.fc63.eb7b,9cc8.fc64.1a4c,9cc8.fc64.7c80,9cc8.fc64.b524,9cc8.fc73.95c1,a811.fc1d.1dda,ac4c.a573.33fc,ac4c.a573.3c24,ac4c.a573.8fac,ac4c.a573.a21c,ac4c.a574.630c,ac4c.a574.9c14,acec.80c4.a512,acec.80d7.dbf2,b052.16fa.879b,b0da.f9bd.1c86,b85e.71b3.adbb,b85e.71b4.1ebb,b85e.71b4.8633,b85e.71b4.878b,b85e.71b4.9d23,b85e.71b4.b8ab,c0a0.0dc2.ef46,c0b5.d7f8.3b58,c0b5.d7f8.fd2c,c0b5.d7fc.23f0,c852.6181.c467,c863.fc27.8d68,d89c.67f5.8302,d89c.67f6.c3e3,d89c.67f8.18e4,dc36.0c6e.abc0,dc36.0c81.6368,dc36.0c83.b358,dc36.0c91.08d0,dc36.0c98.c8c8,dc36.0c99.95a8,dc36.0c99.ddb8,dca2.6687.5799,e86f.38f8.8780,e86f.38fa.1ef0,ec5c.68f2.02a5,ec5c.68f7.45bd,f0af.854c.5076,f0af.854c.5134,f44b.2ae4.6470,f44b.2aec.0e5e,</t>
+          <t>xponder fuera de linea en campo  | OTTime: 2025-06-21 01:33:52</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>VER_CBR8_22_HUB02, Revisar Puerto 10.0.104.22, H02,0537,184,1,1,3,250CP,20DS,4x3.2,RT06,06,05-Lejano - cable9/0/6.1, TOTAL CM: (288) CM OFFLINE(149), DM Alarm: (28430194)087e.644d.6b46,0c96.e6fb.ed69,0c96.e6fc.316a,1056.1125.9488,1056.112c.422e,105b.ade0.a775,105b.aded.3e5f,105b.aded.7e0d,105b.adf8.e9e7,10a7.9325.7520,10a7.9325.7b48,10a7.9327.8e60,10a7.9327.d4a8,10a7.9327.fe18,10a7.9328.0128,10a7.9328.a8d8,10a7.9328.ec28,1494.4846.a304,1494.4846.a4a8,1494.4846.a4c4,1494.4846.a670,1494.4846.a788,1494.4846.c804,1494.487c.c2c0,1494.487c.c808,1494.487c.c828,1494.487d.0834,1494.4882.4380,1494.4885.3e70,1494.4885.3f30,1494.4885.4394,1494.4887.ce04,1494.4887.dd18,1494.4887.ff7c,1494.4888.3384,1494.4888.3554,1494.4888.45d0,1494.488d.7fc4,1494.488d.8454,1494.488d.a7f4,1494.488d.a9e8,1494.488d.b104,1494.488d.c940,2856.5aaf.faa7,2856.5ac3.0f05,2856.5ac5.8d28,2856.5ad9.e146,2c95.6964.fee1,2c95.69e7.0b8a,30f7.7288.bbc7,3468.95f3.83e2,3c04.61f8.6f91,3c04.61f8.73d3,3c04.61fa.b4d1,4023.43ee.50b7,4023.43ee.a637,4075.c32c.95ec,4075.c32f.cea4,4075.c32f.d33c,441c.a8b3.7bf6,485f.99ea.3ab5,485f.99f0.241e,485f.99f9.f540,485f.99fa.1c0d,485f.99fa.4b8c,485f.99fa.53e3,48bd.ce00.4230,48bd.ce02.4c80,48e2.44ee.6973,5095.519a.939e,5095.519c.2c4a,5095.519c.5a58,5095.519d.3aa9,5413.79d7.20ac,5413.79d9.a355,5413.79ea.57bb,5413.79eb.185e,54a6.5c63.8aa8,5c76.9589.eb04,5c76.958f.0c6c,606d.c7bf.06fb,7003.7e86.457e,7440.bbfb.ebfa,7440.bbfd.c537,749b.e869.1828,749b.e86a.ff58,749b.e86b.5210,749b.e86c.9058,7823.ae20.bf8a,80d0.4a0b.bb54,840b.7c55.0aa0,840b.7cfe.45d0,840b.7cfe.4fb0,840b.7cfe.5078,840b.7cfe.7480,840b.7cfe.c198,840b.7cfe.db20,9032.4bc5.ad0a,9058.5196.fb04,946a.7777.acbe,989d.5d2e.d518,9c30.5bfd.89aa,a86b.adad.b47d,a89f.ec30.b3bf,a8a7.95e6.a7b3,a8a7.95f2.418f,acb3.1300.7182,b0da.f933.7870,b0da.f93e.0312,b0da.f940.b256,b85e.7193.46bc,b85e.7193.e1fc,bc9b.68ff.862a,c0a0.0dbe.335c,c0a0.0dc5.0051,c0b5.d7f6.2c2a,c0b5.d7f9.2c1e,c0b5.d7fa.d0fc,c83f.b48b.2222,c852.6181.ca3e,d405.983a.55f2,d405.98b6.c532,d89c.67f6.fb5e,dc36.0c6c.4218,dc36.0c6e.f2d0,dc36.0c83.7af8,dc36.0caa.0cc0,dca2.6686.dc6a,dceb.6977.20c0,e448.c737.0b1e,e448.c74c.3d0a,e86f.38f9.a5e2,ec5c.68ef.270b,ec5c.68f0.1aa1,ec5c.68f2.37b5,ec5c.68f2.c0cb,ec5c.68f9.c6f1,ec5c.68fb.7d45,f88b.37ab.bfc3,f8a0.9739.2105,fc51.a467.43da,</t>
         </is>
       </c>
     </row>
@@ -780,60 +795,90 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>MCA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2157</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>se comparte a personal de plaza para acudir a validacion de servicio de lado sierra candela acude Enoc Ortega Miranda
+NOC CDMX nos podrian apoyar con la liberacion del acceso a coubicacion en sierra candela 
+se acude a coubicacion en Sierra candela se realizan trazas encontrando Caida a los 11.5498 km Rnoc nos podrian apoyar
+Buenas tardes, se tiene alarmado un puerto cliente en el DWDM de Ruta Nacional, esta alarma va a un servicio de MCA/MCM
+Equipo: WDM_NAU_RNA01
+Shelf 1 Slot 7 C2 RN-00561 MCA NAU-TOL 152-15848-3
+No se recibe potencias en el puerto cliente.
+Potencias históricas. Antes del 16 de junio se recibian potencias.
+Como observación, este día hubo un corte por la zona en donde se revisó otros servicios MCA, los cuales van a Planta Externa desde los puertos clientes de DWDM de Naucalpan, por lo que para esta alarma es necesario que se mida desde el puerto alarmado.
+TT atendido el 16 de Junio
+TT MCA: 10051277
+TT Mega: 10049664</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Diferencia: 0 dias, 0 horas, 20 minutos, 57 segundos</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>226</v>
+          <t>6/20/2025 12:39:03 PM</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 13 horas, 41 minutos, 35 segundos</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Zumpango</t>
+          <t>2025-06-21 02:18:21</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEG,Centro,Zumpango, Planta Externa, ,Distribucion, H03,0127, 0127, SALIDA PARCIAL CONCURRENTE, 10.0.240.9 - H03,0127,226 - 3/0/0.1 - CM TOTAL(227) - CM OFFLINE: (132) </t>
+          <t>Diferencia: 0 dias, 13 horas, 39 minutos, 18 segundos</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>10068696</v>
-      </c>
-      <c r="O4" t="n">
-        <v>127</v>
+        <v>152</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Ixtlahuaca</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-06-19 13:37:44</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>6/19/2025 1:22:19 PM</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>xponder fuera de linea en campo  | OTTime: 2025-06-19 13:37:44</t>
-        </is>
+          <t>MCA,Centro,Ixtlahuaca, , ,, ALARMA EN EQUIPO,DWDM NOKIA, WDM_NAU_RNA01, LOSS OF SIGNAL, DOWN</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>10074165</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>TLN_CBR8_09_HUB03, Revisar Puerto 10.0.240.9, H03,0127,226,1,1,3,250CP,32DS,4x3.2,RT07,02,11 - cable3/0/0.1, TOTAL CM: (227) CM OFFLINE(132), DM Alarm: (41758619)1062.d094.461c,1062.d095.4576,1062.d0a6.fad7,1062.d0a8.fab7,38fa.ca38.8227,38fa.ca39.15a2,603d.2626.f95e,603d.2627.6fba,6c55.e8b2.75f6,6c55.e8ce.b4a0,6c55.e8d3.f9ab,6c55.e8d5.7efc,6c55.e8d5.a12f,80d0.4a15.23dc,889e.68c1.e111,889e.68c5.4716,889e.68ca.574c,889e.68ca.98ba,889e.68cb.5f93,9852.4a5d.679e,989d.5d67.1081,b42a.0ea8.f351,b42a.0eaa.4215,b42a.0eaa.a89a,f44c.70a3.b798,f44c.70a4.66b7,f44c.70a4.952e,f44c.70a6.d444,f44c.70a7.2409,f44c.70aa.c228,f44c.70aa.f590,f44c.70ab.0c22,0c96.e6ee.a4d6,105b.adf7.33db,1062.d0ac.6fa5,1093.97d7.63ff,1093.97d7.e12c,1093.97da.f98e,1494.4843.1c34,1494.4843.8e98,1494.4844.14e0,1c9e.cc97.a50c,20f1.9e61.45c6,283a.4d9a.db82,283a.4d9e.ceed,2856.5ad6.0241,2c95.69e7.ae0a,3c04.6182.91cb,3c04.61c6.f94f,4023.43eb.495b,4023.43ec.8dfd,485f.99ef.6e32,485f.99f6.56d0,48bd.ce43.a0dc,48e2.44e8.036c,7003.7e8c.1356,7003.7e93.b946,7003.7e94.511e,7440.bbfc.38b4,748a.0deb.8a74,748a.0dee.f19b,748a.0dee.f60a,749b.e864.7150,749b.e868.eb50,749b.e86a.2888,7871.9c1e.3d92,7871.9c21.09d2,7871.9c39.4b82,80d0.4a0b.695c,80d0.4a10.515c,80d0.4a12.9ccc,80d0.4a15.3e0c,840b.7c55.ad08,9032.4bc7.06a0,90cd.b69e.456e,9453.30f1.f5f5,946a.7778.480e,9cc8.fc63.eb7b,9cc8.fc64.1a4c,9cc8.fc64.7c80,9cc8.fc64.b524,9cc8.fc73.95c1,a811.fc1d.1dda,ac4c.a573.33fc,ac4c.a573.3c24,ac4c.a573.8fac,ac4c.a573.a21c,ac4c.a574.630c,ac4c.a574.9c14,acec.80c4.a512,acec.80d7.dbf2,b052.16fa.879b,b0da.f9bd.1c86,b85e.71b3.adbb,b85e.71b4.1ebb,b85e.71b4.8633,b85e.71b4.878b,b85e.71b4.9d23,b85e.71b4.b8ab,c0a0.0dc2.ef46,c0b5.d7f8.3b58,c0b5.d7f8.fd2c,c0b5.d7fc.23f0,c852.6181.c467,c863.fc27.8d68,d89c.67f5.8302,d89c.67f6.c3e3,d89c.67f8.18e4,dc36.0c6e.abc0,dc36.0c81.6368,dc36.0c83.b358,dc36.0c91.08d0,dc36.0c98.c8c8,dc36.0c99.95a8,dc36.0c99.ddb8,dca2.6687.5799,e86f.38f8.8780,e86f.38fa.1ef0,ec5c.68f2.02a5,ec5c.68f7.45bd,f0af.854c.5076,f0af.854c.5134,f44b.2ae4.6470,f44b.2aec.0e5e,</t>
+          <t>sin datos  | OTTime: 2025-06-21 02:18:21</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Buenas tardes, se tiene alarmado un puerto cliente en el DWDM de Ruta Nacional, esta alarma va a un servicio de MCA/MCM
+Equipo: WDM_NAU_RNA01
+Shelf 1 Slot 7 C2 RN-00561 MCA NAU-TOL 152-15848-3
+No se recibe potencias en el puerto cliente.
+Potencias históricas. Antes del 16 de junio se recibian potencias.
+Como observación, este día hubo un corte por la zona en donde se revisó otros servicios MCA, los cuales van a Planta Externa desde los puertos clientes de DWDM de Naucalpan, por lo que para esta alarma es necesario que se mida desde el puerto alarmado.
+TT atendido el 16 de Junio
+TT MCA: 10051277
+TT Mega: 10049664</t>
         </is>
       </c>
     </row>
@@ -848,81 +893,258 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23305</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19.425469°,-100.355777°</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ZTO_C100G_04_CTC</t>
-        </is>
-      </c>
+      <c r="C5" t="n">
+        <v>278</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Diferencia: 0 dias, 0 horas, 20 minutos, 59 segundos</t>
+          <t>6/20/2025 12:39:03 PM</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>Diferencia: 0 dias, 15 horas, 12 minutos, 46 segundos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Zitacuaro</t>
+          <t>2025-06-21 03:53:26</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEG,Centro,Zitacuaro, Planta Externa, ,Distribucion, H01,0058, 0058, SALIDA TOTAL CONCURRENTE, 10.0.8.68 - H01,0058,116 - 10/6.1/0 - CM TOTAL(247) - CM OFFLINE: (247) </t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>10068808</t>
-        </is>
+          <t>Diferencia: 0 dias, 15 horas, 14 minutos, 23 segundos</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>497</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0058</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:11</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>6/19/2025 1:31:03 PM</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>sin datos  | OTTime: 2025-06-19 13:51:11</t>
-        </is>
+          <t>MCA,Centro,Naucalpan, , ,, ALARMA EN EQUIPO,DWDM NOKIA, WDM_NAU_RNA01, LOSS OF SIGNAL, DOWN</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>10074165</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>ZTO_C100G_04_CTC, Revisar Puerto 10.0.8.68, H01,0058,116,1,1,1,250CP,24DS,Esq_5,RT01,09,08 - Logical Upstream Channel 10/6.1/0, TOTAL CM: (59) CM OFFLINE(59), DM Alarm: (22762351)1062.d02f.bc8a,7003.7e87.1a7e,d89c.67f7.e694,848d.c7ae.32e8,18b8.1f95.16f7,2856.5ac1.d1da,b0da.f9cb.337a,b0da.f9cf.5239,b85e.71b1.80a3,10c2.5a55.2075,2856.5ac3.e67d,5413.79f2.1460,6814.01ab.1c19,889e.68ae.d2dc,9cc8.fc73.ce5b,b85e.71b1.83fb,f44b.2aec.3fd8,441c.1221.53f8,7003.7e94.d39e,80d0.4a10.4474,9032.4bc7.1ffa,a89f.ec53.85b7,b0da.f9bc.f3b4,dc36.0c6d.bdd0,105b.ade2.2ded,18b8.1f82.4af9,383f.b360.bad4,384c.90b9.fb72,4075.c32a.3a84,441c.1221.5758,441c.1221.fad8,485f.99f5.fa90,5c76.958d.18a4,603d.26d7.315e,7003.7e87.e166,749b.e869.d900,840b.7cfe.6730,ac4c.a573.fe94,acec.8014.f202,b85e.71b4.2b93,c83f.b4e5.fe42,d4b9.2fdc.0fcd,ec5c.68f7.210f,ec5c.68f7.46ef,ec5c.68f8.7fd3,087e.644d.5d36,1062.d0ef.d73f,10a7.9327.44f0,1494.484d.b594,2856.5ac3.e7fe,3c04.6182.1804,4023.43eb.1fa3,4023.43eb.b44d,441c.1221.50a0,441c.1222.0718,5c76.958c.ec74,7003.7e8f.af3e,7003.7e92.1b06,7003.7e93.4e66,7440.bbfa.26e4,a456.cc34.8407,ac4c.a573.8b3c,ac4c.a573.e264,acb3.1363.a122,b85e.7194.a3f4,b85e.7194.a4cc,b85e.71a4.a864,b85e.71a4.caf4,b85e.71b1.7ca3,bcd1.6529.9fa6,bcd1.652c.8d46,c83f.b4e2.8122,c863.fc27.8688,d80f.9998.5171,d80f.9998.595f,dc36.0c84.0c40,e86f.38fa.3e8e,eca8.1f69.2c64,f40e.83c6.ce86,f44b.2ad9.c3ca,fc51.a47e.00a7,0c96.e6f3.d0b6,1056.111b.6c8d,1494.4844.82fc,18b8.1faf.93ea,283a.4d9e.d27b,283a.4d9e.e870,2c7e.81da.2182,3cb7.4b5d.d834,4023.43ea.95a9,4023.43ed.c759,40b8.9ad9.436c,441c.1221.4de0,441c.1222.f598,485f.99ea.3af4,485f.99f6.6798,5465.de35.4152,7003.7e85.6b66,7003.7e88.3d16,7003.7e89.b4ae,7003.7e92.64b6,7440.bbfb.104c,748a.0deb.709d,748a.0deb.8830,749b.e86d.d530,7871.9c21.14e2,7871.9cfa.7942,80d0.4a13.3154,9032.4bc4.e68b,946a.7779.d8ae,9487.7c50.2712,a456.cc34.167f,ac4c.a574.69a4,ac4c.a575.6464,b052.16fa.65cc,b85e.71b1.74cb,b85e.71b2.ad4b,b85e.71b3.c9b3,c863.fc27.75f3,c863.fc27.95e7,d80f.999a.75b9,d80f.99a3.3645,dc36.0c6c.e320,dc36.0c98.cae0,dca2.6686.69ca,f8d2.ac3f.e893,0c96.e6f0.6125,105b.adf7.959d,1093.97d7.676a,1093.97da.c8e7,1093.97da.ebba,1494.484b.c700,1494.484d.c444,1494.484e.01c4,1494.484e.04f0,18b8.1f81.a2cf,18b8.1f99.80a7,20f1.9e74.7e66,283a.4d9b.c2eb,283a.4d9c.a3d9,2c95.6964.606c,384c.9003.4532,3c04.61f8.7a95,4023.43ec.eb57,485f.99ea.4551,485f.99f8.f1d0,485f.99f8.ff36,48bd.cef7.0583,5095.519c.f233,5413.79d7.dbad,5465.de4e.5df2,5ce3.0e5b.e8cb,5ce3.0ee9.d01d,7003.7e87.54e6,7003.7e8f.d1d6,7003.7e91.c886,749b.e868.d300,749b.e869.1858,749b.e86b.eb80,749b.e86c.8e80,749b.e86f.1e30,7871.9c64.de62,80d0.4a15.a3fc,840b.7c55.08e0,8c09.f4ca.44f2,90cd.b69b.d246,a811.fc1c.fb9d,a89f.ec48.6096,ac4c.a573.ff84,ac4c.a574.1b7c,ac4c.a574.9dbc,ac4c.a575.5ecc,b85e.7194.a3fc,b85e.71b4.4b03,bcd1.6554.f072,c0a0.0dc2.309c,c0b5.d7f9.569c,c0b5.d7f9.abfe,c863.fc27.4db7,c863.fc27.7620,d89c.67f8.1071,dc36.0cab.7eb0,e8ed.0560.95b2,eca8.1f69.ddfc,f44b.2ad2.0410,f44b.2aef.be74,f8da.0c90.da60,0026.970c.9625,1494.483b.6f5c,1494.4843.fab8,1494.4846.7838,1494.4888.1ed4,14ab.f020.adf2,18b8.1f9b.ddd9,18b8.1fac.31eb,18b8.1fb1.d90c,20f1.9e71.f3a8,20f1.9e72.e169,283a.4d9d.5ccd,283a.4d9e.4ff1,384c.9005.0d52,384c.9015.f022,384c.9035.9322,3c04.6182.349c,481d.709d.3a88,485f.99f2.d2ee,485f.99f8.6743,5c76.958a.e39c,603d.26db.cb98,6814.01f6.ec17,7003.7e85.bc3e,7003.7e94.5b96,749b.e863.aab8,749b.e86b.4220,7871.9cff.f642,840b.7cf9.9260,8c09.f4cf.b4a2,a811.fc1e.6997,ac4c.a573.c6d4,ac4c.a574.d3dc,acec.8037.b1e2,acec.8071.e7d2,acec.8076.54d2,b85e.71a3.f1c4,b85e.71a4.9cac,b85e.71b4.8e63,bcca.b533.29c2,bcd1.65bf.e050,bcd1.65ce.8c50,c0b5.d7f7.c7ea,c83f.b43c.2ae2,c852.6181.3d03,cc0d.ecce.9770,d46a.6af3.921f,d4b9.2fdb.e8a5,dc36.0c81.fd10,dc36.0cab.2cd0,dc36.0cab.3e28,dca2.6686.0f5d,dceb.6972.7b68,ec5c.68ef.819b,ec5c.68f9.3f13,f44b.2ad7.08d0,f44b.2adb.bda4,fc51.a47c.f72a,</t>
+          <t>sin datos  | OTTime: 2025-06-21 02:18:21 | OTTime: 2025-06-21 03:53:26</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Buenas tardes, se tiene alarmado un puerto cliente en el DWDM de Ruta Nacional, esta alarma va a un servicio de MCA/MCM
+Equipo: WDM_NAU_RNA01
+Shelf 1 Slot 7 C2 RN-00561 MCA NAU-TOL 152-15848-3
+No se recibe potencias en el puerto cliente.
+Potencias históricas. Antes del 16 de junio se recibian potencias.
+Como observación, este día hubo un corte por la zona en donde se revisó otros servicios MCA, los cuales van a Planta Externa desde los puertos clientes de DWDM de Naucalpan, por lo que para esta alarma es necesario que se mida desde el puerto alarmado.
+TT atendido el 16 de Junio
+TT MCA: 10051277
+TT Mega: 10049664</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Emmanuel Lopez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>550</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CDMX_ASR920_HUB_CHCO	10.4.130.193	5m 31s	Oper Status TMCA1-PAN_ASR920_323-NEZA-Po9-10.4.90.225 - Po9	Down	Today 04:22:45 a. m.	Today 04:22:45 a. m.	Critical	0		None.None.None	New alarm	System CDMX_ASR920_HUB_CHCO	10.4.130.193	5m 31s	Oper Status TMCA1-PAN_ASR920_323-NEZA-Te0/0/25-10.4.90.225_Po9[No_Configurar] - Te0/0/12	Down	Today 04:22:45 a. m.	Today 04:22:45 a. m.	Critical	0		None.None.None	New alarm	System CDMX_ASR920_PAN_HUB_NEZA	10.4.90.225	5m 30s	Oper Status TMCA1-PAN-ASR920-323-HUB_CHLC-Te0/0/12-10.4.130.193_Po9[No_confi - Te0/0/25	Down	Today 04:22:46 a. m.	Today 04:22:46 a. m.	Critical	0		None.None.None	New alarm	System CDMX_ASR920_PAN_HUB_NEZA	10.4.90.225	5m 30s	Oper Status TMCA1-PAN-ASR920-323-HUB_CHLC-Po9-10.4.130.193 - Po9	Down	Today 04:22:46 a. m.	Today 04:22:46 a. m.	Critical	0		None.None.None	New alarm	System</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6/21/2025 4:26:52 AM</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 0 horas, 8 minutos, 44 segundos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025-06-21 04:37:33</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 0 horas, 10 minutos, 41 segundos</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>531</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Texcoco</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MCA,Centro,Texcoco, , ,, RNOC,CDMX, MCA, ENLACE HUB CHALCO A HUB NEZA DOWN </t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>10076894</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>sin datos  | OTTime: 2025-06-21 04:37:33</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Element name Polling IP Severity duration Parameter description Value Time Root time Severity Service impact Services RCA level Alarm type Owner
+CDMX_ASR920_HUB_CHCO 10.4.130.193 5m 31s Oper Status TMCA1-PAN_ASR920_323-NEZA-Po9-10.4.90.225 - Po9 Down Today 04:22:45 a. m. Today 04:22:45 a. m. Critical 0 None.None.None New alarm System
+CDMX_ASR920_HUB_CHCO 10.4.130.193 5m 31s Oper Status TMCA1-PAN_ASR920_323-NEZA-Te0/0/25-10.4.90.225_Po9[No_Configurar] - Te0/0/12 Down Today 04:22:45 a. m. Today 04:22:45 a. m. Critical 0 None.None.None New alarm System
+CDMX_ASR920_PAN_HUB_NEZA 10.4.90.225 5m 30s Oper Status TMCA1-PAN-ASR920-323-HUB_CHLC-Te0/0/12-10.4.130.193_Po9[No_confi - Te0/0/25 Down Today 04:22:46 a. m. Today 04:22:46 a. m. Critical 0 None.None.None New alarm System
+CDMX_ASR920_PAN_HUB_NEZA 10.4.90.225 5m 30s Oper Status TMCA1-PAN-ASR920-323-HUB_CHLC-Po9-10.4.130.193 - Po9 Down Today 04:22:46 a. m. Today 04:22:46 a. m. Critical 0 None.None.None New alarm System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Emmanuel Lopez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.274450594026508,-98.43052089214326</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PUE_OLT5800T_GPON_37_HUB12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6/21/2025 5:27:12 AM</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 0 horas, 41 minutos, 45 segundos</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-06-21 05:59:26</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Diferencia: 0 dias, 0 horas, 32 minutos, 14 segundos</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>San Martin Texmeluca</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>MEG,Sureste,San Martin Texmeluca, Planta Externa, ,Fibra Optica, H12,037,RT09, 0000, GPON SALIDA PARCIAL CONCURRENTE, 10.1.73.207 - 0/11/6 - 441,H12,037,RT09,03,10,T00 - CM OFFLINE: (13) - CM TOTAL(13)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>10076972</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>revv  | OTTime: 2025-06-21 05:59:26</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>PUE_OLT5800T_GPON_37_HUB12, Revisar FSP 10.1.73.207, 0/11/6 - 441,H12,037,RT09,03,10,T00, TOTAL CM: (13) CM OFFLINE(13), DM Alarm: (58290366)Serie:485754435C387CAD|
+Serie:48575443E40086A6|
+Serie:5A544547D4FA3725|
+Serie:5A544547D02F8A5D|
+Serie:5A544547D1B62865|
+Serie:48575443AEBE39AD|
+Serie:485754431EF8BFA1|
+Serie:48575443AED173AD|
+Serie:48575443D82300AB|
+Serie:48575443FCEFD2AE|
+Serie:48575443DE8A8AA3|
+Serie:5A544547D4FA37FF|
+ URL:https://rnoc.geomega.com.mx/?num_sucursal=441&amp;ip=10.1.73.207&amp;fsp=PUE_OLT5800T_GPON_37_HUB12-0/11/6</t>
         </is>
       </c>
     </row>
